--- a/data/trans_orig/P17E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0B3D0E-1BBC-43F4-826A-11FA3406D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C480324E-50B8-42B6-B313-A7CFF602DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FFE5F63-D985-43F9-99B0-9A470F7CEA78}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEF201F9-8F7A-4F87-B693-B786310EB5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>84,65%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,27%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,16 +197,16 @@
     <t>12,06%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>15,57%</t>
+    <t>15,36%</t>
   </si>
   <si>
     <t>24,72%</t>
@@ -215,1117 +215,1141 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>79,57%</t>
   </si>
   <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>78,75%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18483179-AEDA-4083-8FA2-1F8FACB958B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137DB122-E353-4392-9FEE-DA16C676A9AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C916604-CAE4-4269-9A22-1DE75E6A5B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8FC53A-2E30-42A9-8025-97C232FCE3BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3112,10 +3136,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3154,13 @@
         <v>122188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -3145,13 +3169,13 @@
         <v>168592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3160,13 +3184,13 @@
         <v>290780</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3258,13 @@
         <v>44788</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3249,13 +3273,13 @@
         <v>61117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3264,13 +3288,13 @@
         <v>105905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3309,13 @@
         <v>192832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>273</v>
@@ -3300,13 +3324,13 @@
         <v>294897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>448</v>
@@ -3315,13 +3339,13 @@
         <v>487729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3413,13 @@
         <v>38770</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3404,13 +3428,13 @@
         <v>45183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -3419,13 +3443,13 @@
         <v>83953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3464,13 @@
         <v>137641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -3455,13 +3479,13 @@
         <v>185297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>286</v>
@@ -3470,13 +3494,13 @@
         <v>322938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3568,13 @@
         <v>41033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3559,13 +3583,13 @@
         <v>69849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3574,13 +3598,13 @@
         <v>110882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3619,13 @@
         <v>146437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -3610,13 +3634,13 @@
         <v>259991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -3625,13 +3649,13 @@
         <v>406428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3723,13 @@
         <v>163088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -3714,13 +3738,13 @@
         <v>213308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -3729,13 +3753,13 @@
         <v>376396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3774,13 @@
         <v>617052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>872</v>
@@ -3765,13 +3789,13 @@
         <v>940156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>1437</v>
@@ -3780,13 +3804,13 @@
         <v>1557208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2AF50E-362B-4874-A2D4-B82D4606DA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C63BC3-9E57-4395-9206-F941660E09DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +4011,13 @@
         <v>6153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4002,13 +4026,13 @@
         <v>9492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4017,13 +4041,13 @@
         <v>15645</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4062,13 @@
         <v>33244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4053,13 +4077,13 @@
         <v>25443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4068,13 +4092,13 @@
         <v>58688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4166,13 @@
         <v>22550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4157,13 +4181,13 @@
         <v>42394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4172,13 +4196,13 @@
         <v>64944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4217,13 @@
         <v>131252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>164</v>
@@ -4208,13 +4232,13 @@
         <v>170648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -4223,13 +4247,13 @@
         <v>301900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4321,13 @@
         <v>39298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4312,13 +4336,13 @@
         <v>49394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4327,13 +4351,13 @@
         <v>88692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4372,13 @@
         <v>226328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -4363,13 +4387,13 @@
         <v>305430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -4378,13 +4402,13 @@
         <v>531758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4476,13 @@
         <v>41531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4467,13 +4491,13 @@
         <v>63813</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -4482,13 +4506,13 @@
         <v>105343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4527,13 @@
         <v>133235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -4518,13 +4542,13 @@
         <v>187175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -4533,13 +4557,13 @@
         <v>320411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4631,13 @@
         <v>46421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4622,13 +4646,13 @@
         <v>55790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4637,13 +4661,13 @@
         <v>102211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4682,13 @@
         <v>171621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -4673,13 +4697,13 @@
         <v>254740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -4688,13 +4712,13 @@
         <v>426362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4786,13 @@
         <v>155952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -4777,28 +4801,28 @@
         <v>220884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>376836</v>
+        <v>376835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4837,13 @@
         <v>695682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>873</v>
@@ -4828,13 +4852,13 @@
         <v>943436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1539</v>
@@ -4843,13 +4867,13 @@
         <v>1639118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4915,7 @@
         <v>1889</v>
       </c>
       <c r="N21" s="7">
-        <v>2015954</v>
+        <v>2015953</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4926,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC86DA0-97E2-428A-A206-A81BB3B2089F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DC5B0F-D18B-4FC6-AC35-C0E3982EBAD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5074,13 @@
         <v>4106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5065,13 +5089,13 @@
         <v>3843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -5080,13 +5104,13 @@
         <v>7949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5125,13 @@
         <v>15520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -5116,13 +5140,13 @@
         <v>24141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -5131,13 +5155,13 @@
         <v>39661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5229,13 @@
         <v>16248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5220,13 +5244,13 @@
         <v>26292</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5235,13 +5259,13 @@
         <v>42540</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>58</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5280,13 @@
         <v>81470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>214</v>
@@ -5271,13 +5295,13 @@
         <v>123872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -5286,13 +5310,13 @@
         <v>205341</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5384,13 @@
         <v>39161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -5378,10 +5402,10 @@
         <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -5390,13 +5414,13 @@
         <v>88549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5435,13 @@
         <v>154613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5429,10 +5453,10 @@
         <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -5441,13 +5465,13 @@
         <v>344801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5539,13 @@
         <v>44942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5530,13 +5554,13 @@
         <v>40023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5545,13 +5569,13 @@
         <v>84965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5590,13 @@
         <v>94356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -5581,13 +5605,13 @@
         <v>122321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -5596,13 +5620,13 @@
         <v>216677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5694,13 @@
         <v>56366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -5685,13 +5709,13 @@
         <v>90466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5700,13 +5724,13 @@
         <v>146832</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5745,13 @@
         <v>159991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>328</v>
@@ -5736,13 +5760,13 @@
         <v>251271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -5751,13 +5775,13 @@
         <v>411262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5849,13 @@
         <v>160822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -5840,13 +5864,13 @@
         <v>210012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
@@ -5855,13 +5879,13 @@
         <v>370834</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5900,13 @@
         <v>505951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>1048</v>
@@ -5891,13 +5915,13 @@
         <v>711792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -5906,13 +5930,13 @@
         <v>1217743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C480324E-50B8-42B6-B313-A7CFF602DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0845C0-D50A-4DBC-9E5A-0AFC567FD002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEF201F9-8F7A-4F87-B693-B786310EB5C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E4523EF-18E6-48A2-8DB5-E40B755D0CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -77,28 +77,28 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,1141 +107,1147 @@
     <t>84,65%</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>78,41%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>76,71%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
   </si>
   <si>
     <t>26,05%</t>
@@ -1761,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137DB122-E353-4392-9FEE-DA16C676A9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9958C3B9-7340-48EA-B862-6CDBB7CA61B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8FC53A-2E30-42A9-8025-97C232FCE3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6616B-796C-499B-A230-64477DF415A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3726,10 +3732,10 @@
         <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -3738,13 +3744,13 @@
         <v>213308</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -3753,13 +3759,13 @@
         <v>376396</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3780,13 @@
         <v>617052</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>872</v>
@@ -3789,13 +3795,13 @@
         <v>940156</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>1437</v>
@@ -3804,13 +3810,13 @@
         <v>1557208</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C63BC3-9E57-4395-9206-F941660E09DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96374DF-FE71-46B9-886D-92D6D8D35613}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4017,13 @@
         <v>6153</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4026,13 +4032,13 @@
         <v>9492</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4041,13 +4047,13 @@
         <v>15645</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4068,13 @@
         <v>33244</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4077,13 +4083,13 @@
         <v>25443</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4092,13 +4098,13 @@
         <v>58688</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4172,13 @@
         <v>22550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4181,13 +4187,13 @@
         <v>42394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4196,13 +4202,13 @@
         <v>64944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>131252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>164</v>
@@ -4232,13 +4238,13 @@
         <v>170648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -4247,13 +4253,13 @@
         <v>301900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4327,13 @@
         <v>39298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4336,13 +4342,13 @@
         <v>49394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4351,13 +4357,13 @@
         <v>88692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4378,13 @@
         <v>226328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -4387,13 +4393,13 @@
         <v>305430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -4402,13 +4408,13 @@
         <v>531758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4482,13 @@
         <v>41531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4491,13 +4497,13 @@
         <v>63813</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -4506,13 +4512,13 @@
         <v>105343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4533,13 @@
         <v>133235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -4542,13 +4548,13 @@
         <v>187175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -4557,13 +4563,13 @@
         <v>320411</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4637,13 @@
         <v>46421</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -4646,13 +4652,13 @@
         <v>55790</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4661,13 +4667,13 @@
         <v>102211</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4688,13 @@
         <v>171621</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -4697,13 +4703,13 @@
         <v>254740</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -4712,13 +4718,13 @@
         <v>426362</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>155952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -4801,13 +4807,13 @@
         <v>220884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
@@ -4816,13 +4822,13 @@
         <v>376835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>695682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>873</v>
@@ -4852,13 +4858,13 @@
         <v>943436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>1539</v>
@@ -4867,13 +4873,13 @@
         <v>1639118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DC5B0F-D18B-4FC6-AC35-C0E3982EBAD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730FDED8-CD1F-41C6-9BBE-72928B04D329}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5080,13 @@
         <v>4106</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5089,13 +5095,13 @@
         <v>3843</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -5104,13 +5110,13 @@
         <v>7949</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5131,13 @@
         <v>15520</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -5140,13 +5146,13 @@
         <v>24141</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -5155,13 +5161,13 @@
         <v>39661</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5235,13 @@
         <v>16248</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5244,13 +5250,13 @@
         <v>26292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5259,13 +5265,13 @@
         <v>42540</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,10 +5286,10 @@
         <v>81470</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>364</v>
@@ -5417,7 +5423,7 @@
         <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>377</v>
@@ -5471,7 +5477,7 @@
         <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,10 +5578,10 @@
         <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5596,13 @@
         <v>94356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -5605,13 +5611,13 @@
         <v>122321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -5620,13 +5626,13 @@
         <v>216677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5700,13 @@
         <v>56366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -5709,13 +5715,13 @@
         <v>90466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5724,13 +5730,13 @@
         <v>146832</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5751,13 @@
         <v>159991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>328</v>
@@ -5760,13 +5766,13 @@
         <v>251271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -5775,13 +5781,13 @@
         <v>411262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5855,13 @@
         <v>160822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -5864,13 +5870,13 @@
         <v>210012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
@@ -5879,13 +5885,13 @@
         <v>370834</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5906,13 @@
         <v>505951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>1048</v>
@@ -5915,13 +5921,13 @@
         <v>711792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -5930,13 +5936,13 @@
         <v>1217743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0845C0-D50A-4DBC-9E5A-0AFC567FD002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA989B8-E6C1-4283-BEBB-D7DC0DF71731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E4523EF-18E6-48A2-8DB5-E40B755D0CF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35298011-6231-490F-A3E2-8FD7502430A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>84,65%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1129 +140,1111 @@
     <t>18,27%</t>
   </si>
   <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>88,88%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>31,24%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>68,76%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>21,53%</t>
+    <t>21,04%</t>
   </si>
   <si>
     <t>31,46%</t>
@@ -1271,19 +1253,19 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>73,53%</t>
@@ -1292,52 +1274,46 @@
     <t>68,54%</t>
   </si>
   <si>
-    <t>78,47%</t>
+    <t>78,96%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
     <t>25,52%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>25,43%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>77,22%</t>
@@ -1346,16 +1322,10 @@
     <t>74,48%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>74,57%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9958C3B9-7340-48EA-B862-6CDBB7CA61B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D19C3-79B9-4E04-88DE-6F65B67934BD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2830,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E6616B-796C-499B-A230-64477DF415A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB4490D-D502-465C-89B0-D102B0B93305}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,10 +3112,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3130,13 @@
         <v>122188</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -3175,13 +3145,13 @@
         <v>168592</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3190,13 +3160,13 @@
         <v>290780</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3234,13 @@
         <v>44788</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3279,13 +3249,13 @@
         <v>61117</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3294,13 +3264,13 @@
         <v>105905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3285,13 @@
         <v>192832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>273</v>
@@ -3330,13 +3300,13 @@
         <v>294897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>448</v>
@@ -3345,13 +3315,13 @@
         <v>487729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3389,13 @@
         <v>38770</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3434,13 +3404,13 @@
         <v>45183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -3449,13 +3419,13 @@
         <v>83953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3440,13 @@
         <v>137641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -3485,13 +3455,13 @@
         <v>185297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>286</v>
@@ -3500,13 +3470,13 @@
         <v>322938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3544,13 @@
         <v>41033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3589,13 +3559,13 @@
         <v>69849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3604,13 +3574,13 @@
         <v>110882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3595,13 @@
         <v>146437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -3640,13 +3610,13 @@
         <v>259991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -3655,13 +3625,13 @@
         <v>406428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3699,13 @@
         <v>163088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -3744,13 +3714,13 @@
         <v>213308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>354</v>
@@ -3759,13 +3729,13 @@
         <v>376396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3750,13 @@
         <v>617052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>872</v>
@@ -3795,13 +3765,13 @@
         <v>940156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1437</v>
@@ -3810,13 +3780,13 @@
         <v>1557208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96374DF-FE71-46B9-886D-92D6D8D35613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A8CF93-1CAC-4389-9885-3A5886F861DA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3987,13 @@
         <v>6153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4032,13 +4002,13 @@
         <v>9492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4047,13 +4017,13 @@
         <v>15645</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4038,13 @@
         <v>33244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4083,13 +4053,13 @@
         <v>25443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -4098,13 +4068,13 @@
         <v>58688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4142,13 @@
         <v>22550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4187,13 +4157,13 @@
         <v>42394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4202,13 +4172,13 @@
         <v>64944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4193,13 @@
         <v>131252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>164</v>
@@ -4238,13 +4208,13 @@
         <v>170648</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -4253,13 +4223,13 @@
         <v>301900</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4297,13 @@
         <v>39298</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4342,13 +4312,13 @@
         <v>49394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -4357,13 +4327,13 @@
         <v>88692</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4348,13 @@
         <v>226328</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -4393,7 +4363,7 @@
         <v>305430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>279</v>
@@ -4652,13 +4622,13 @@
         <v>55790</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4667,13 +4637,13 @@
         <v>102211</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4658,13 @@
         <v>171621</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>230</v>
@@ -4703,13 +4673,13 @@
         <v>254740</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -4718,13 +4688,13 @@
         <v>426362</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4762,13 @@
         <v>155952</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -4819,7 +4789,7 @@
         <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>376835</v>
+        <v>376836</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>324</v>
@@ -4828,7 +4798,7 @@
         <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4813,13 @@
         <v>695682</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>873</v>
@@ -4858,13 +4828,13 @@
         <v>943436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>1539</v>
@@ -4873,10 +4843,10 @@
         <v>1639118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>333</v>
@@ -4921,7 +4891,7 @@
         <v>1889</v>
       </c>
       <c r="N21" s="7">
-        <v>2015953</v>
+        <v>2015954</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4956,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730FDED8-CD1F-41C6-9BBE-72928B04D329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E29FC-3A56-4345-8BF2-7986D6BD1825}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,13 +5205,13 @@
         <v>16248</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5250,13 +5220,13 @@
         <v>26292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -5265,13 +5235,13 @@
         <v>42540</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5256,13 @@
         <v>81470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>214</v>
@@ -5301,13 +5271,13 @@
         <v>123872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -5316,13 +5286,13 @@
         <v>205341</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5360,13 @@
         <v>39161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -5408,10 +5378,10 @@
         <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -5420,13 +5390,13 @@
         <v>88549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5411,13 @@
         <v>154613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5459,10 +5429,10 @@
         <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -5471,13 +5441,13 @@
         <v>344801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5515,13 @@
         <v>44942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5560,13 +5530,13 @@
         <v>40023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5575,13 +5545,13 @@
         <v>84965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5566,13 @@
         <v>94356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -5611,13 +5581,13 @@
         <v>122321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -5626,13 +5596,13 @@
         <v>216677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5670,13 @@
         <v>56366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -5715,13 +5685,13 @@
         <v>90466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5730,13 +5700,13 @@
         <v>146832</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5721,13 @@
         <v>159991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>328</v>
@@ -5766,13 +5736,13 @@
         <v>251271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -5781,13 +5751,13 @@
         <v>411262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5825,13 @@
         <v>160822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -5870,13 +5840,13 @@
         <v>210012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
@@ -5885,13 +5855,13 @@
         <v>370834</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5876,13 @@
         <v>505951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>1048</v>
@@ -5921,13 +5891,13 @@
         <v>711792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1585</v>
@@ -5936,13 +5906,13 @@
         <v>1217743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA989B8-E6C1-4283-BEBB-D7DC0DF71731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E10238B-8613-4D8A-B190-006ED170FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35298011-6231-490F-A3E2-8FD7502430A1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4BE63695-3B7D-4CBC-8EEF-460EE261CAED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -68,775 +68,616 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>Médico general</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>14,79%</t>
@@ -848,15 +689,9 @@
     <t>19,94%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
     <t>14,29%</t>
   </si>
   <si>
@@ -875,12 +710,6 @@
     <t>89,5%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
     <t>89,7%</t>
   </si>
   <si>
@@ -968,9 +797,6 @@
     <t>15,92%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
     <t>78,71%</t>
   </si>
   <si>
@@ -989,9 +815,6 @@
     <t>80,66%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
     <t>84,08%</t>
   </si>
   <si>
@@ -1046,286 +869,250 @@
     <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D19C3-79B9-4E04-88DE-6F65B67934BD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E9F91-B74B-483F-90DC-277AFE88FC65}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1855,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>3139</v>
+        <v>22601</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1870,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>7500</v>
+        <v>37172</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1885,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>10639</v>
+        <v>59773</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1906,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>17305</v>
+        <v>104373</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1921,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>41555</v>
+        <v>176929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1936,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
-        <v>58860</v>
+        <v>281303</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1957,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>20444</v>
+        <v>126974</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>49055</v>
+        <v>214101</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>69499</v>
+        <v>341076</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>19463</v>
+        <v>23198</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2022,37 +1809,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7">
+        <v>54</v>
+      </c>
+      <c r="I7" s="7">
+        <v>60419</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7">
-        <v>29671</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>76</v>
+      </c>
+      <c r="N7" s="7">
+        <v>83616</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>49</v>
-      </c>
-      <c r="N7" s="7">
-        <v>49134</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +1848,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>87067</v>
+        <v>169154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>233</v>
+      </c>
+      <c r="I8" s="7">
+        <v>247000</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>134</v>
-      </c>
-      <c r="I8" s="7">
-        <v>135375</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>394</v>
+      </c>
+      <c r="N8" s="7">
+        <v>416155</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>225</v>
-      </c>
-      <c r="N8" s="7">
-        <v>222443</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="D9" s="7">
-        <v>106530</v>
+        <v>192352</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="I9" s="7">
-        <v>165046</v>
+        <v>307419</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>274</v>
+        <v>470</v>
       </c>
       <c r="N9" s="7">
-        <v>271577</v>
+        <v>499771</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2159,55 +1946,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>23198</v>
+        <v>37934</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>47</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45713</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7">
-        <v>60419</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>82</v>
+      </c>
+      <c r="N10" s="7">
+        <v>83647</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83616</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2003,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>169154</v>
+        <v>106715</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>156</v>
+      </c>
+      <c r="I11" s="7">
+        <v>153439</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>233</v>
-      </c>
-      <c r="I11" s="7">
-        <v>247000</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>257</v>
+      </c>
+      <c r="N11" s="7">
+        <v>260154</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>394</v>
-      </c>
-      <c r="N11" s="7">
-        <v>416155</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7">
-        <v>192352</v>
+        <v>144649</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7">
-        <v>307419</v>
+        <v>199152</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>470</v>
+        <v>339</v>
       </c>
       <c r="N12" s="7">
-        <v>499771</v>
+        <v>343801</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2314,55 +2101,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>37934</v>
+        <v>46638</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7">
+        <v>67550</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7">
-        <v>45713</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>114</v>
+      </c>
+      <c r="N13" s="7">
+        <v>114189</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>82</v>
-      </c>
-      <c r="N13" s="7">
-        <v>83647</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,49 +2158,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7">
-        <v>106715</v>
+        <v>148688</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>249</v>
+      </c>
+      <c r="I14" s="7">
+        <v>260147</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>156</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153439</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>411</v>
+      </c>
+      <c r="N14" s="7">
+        <v>408834</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>257</v>
-      </c>
-      <c r="N14" s="7">
-        <v>260154</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>144649</v>
+        <v>195326</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2437,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="I15" s="7">
-        <v>199152</v>
+        <v>327697</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2452,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="N15" s="7">
-        <v>343801</v>
+        <v>523023</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2469,55 +2256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D16" s="7">
-        <v>46638</v>
+        <v>130371</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>202</v>
+      </c>
+      <c r="I16" s="7">
+        <v>210854</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>64</v>
-      </c>
-      <c r="I16" s="7">
-        <v>67550</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>332</v>
+      </c>
+      <c r="N16" s="7">
+        <v>341225</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>114</v>
-      </c>
-      <c r="N16" s="7">
-        <v>114189</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D17" s="7">
-        <v>148688</v>
+        <v>528931</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>820</v>
+      </c>
+      <c r="I17" s="7">
+        <v>837516</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>249</v>
-      </c>
-      <c r="I17" s="7">
-        <v>260147</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1351</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1366447</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>411</v>
-      </c>
-      <c r="N17" s="7">
-        <v>408834</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>195326</v>
+        <v>659302</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2592,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>313</v>
+        <v>1022</v>
       </c>
       <c r="I18" s="7">
-        <v>327697</v>
+        <v>1048370</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>525</v>
+        <v>1683</v>
       </c>
       <c r="N18" s="7">
-        <v>523023</v>
+        <v>1707672</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2623,171 +2410,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>130</v>
-      </c>
-      <c r="D19" s="7">
-        <v>130371</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>202</v>
-      </c>
-      <c r="I19" s="7">
-        <v>210854</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>332</v>
-      </c>
-      <c r="N19" s="7">
-        <v>341225</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>531</v>
-      </c>
-      <c r="D20" s="7">
-        <v>528931</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>820</v>
-      </c>
-      <c r="I20" s="7">
-        <v>837516</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1351</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1366447</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>661</v>
-      </c>
-      <c r="D21" s="7">
-        <v>659302</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1048370</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1683</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1707672</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2800,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB4490D-D502-465C-89B0-D102B0B93305}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A417FD14-3E93-4CEB-BA1D-DA5772E4B61A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2817,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,49 +2549,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>10000</v>
+        <v>38497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>5510</v>
+        <v>37159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>15509</v>
+        <v>75656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2600,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>17954</v>
+        <v>140142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>31379</v>
+        <v>199971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>49334</v>
+        <v>340113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D6" s="7">
-        <v>27954</v>
+        <v>178639</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="I6" s="7">
-        <v>36889</v>
+        <v>237130</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="N6" s="7">
-        <v>64843</v>
+        <v>415769</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3073,49 +2704,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>28498</v>
+        <v>44788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>31649</v>
+        <v>61117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>60147</v>
+        <v>105905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2755,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D8" s="7">
-        <v>122188</v>
+        <v>192832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>168592</v>
+        <v>294897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>269</v>
+        <v>448</v>
       </c>
       <c r="N8" s="7">
-        <v>290780</v>
+        <v>487729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="D9" s="7">
-        <v>150686</v>
+        <v>237620</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="I9" s="7">
-        <v>200241</v>
+        <v>356014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>350927</v>
+        <v>593634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,55 +2853,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>44788</v>
+        <v>38770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>61117</v>
+        <v>45183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N10" s="7">
-        <v>105905</v>
+        <v>83953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2910,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>192832</v>
+        <v>137641</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>294897</v>
+        <v>185297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="N11" s="7">
-        <v>487729</v>
+        <v>322938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="D12" s="7">
-        <v>237620</v>
+        <v>176411</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3345,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>356014</v>
+        <v>230480</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3360,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>546</v>
+        <v>364</v>
       </c>
       <c r="N12" s="7">
-        <v>593634</v>
+        <v>406891</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3377,55 +3008,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>38770</v>
+        <v>41033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>45183</v>
+        <v>69849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>83953</v>
+        <v>110882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>137641</v>
+        <v>146437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="I14" s="7">
-        <v>185297</v>
+        <v>259991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>286</v>
+        <v>387</v>
       </c>
       <c r="N14" s="7">
-        <v>322938</v>
+        <v>406428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D15" s="7">
-        <v>176411</v>
+        <v>187470</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3500,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="I15" s="7">
-        <v>230480</v>
+        <v>329840</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3515,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>364</v>
+        <v>492</v>
       </c>
       <c r="N15" s="7">
-        <v>406891</v>
+        <v>517310</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3532,55 +3163,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>41033</v>
+        <v>163088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="I16" s="7">
-        <v>69849</v>
+        <v>213308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="N16" s="7">
-        <v>110882</v>
+        <v>376396</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3220,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>140</v>
+        <v>565</v>
       </c>
       <c r="D17" s="7">
-        <v>146437</v>
+        <v>617052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>247</v>
+        <v>872</v>
       </c>
       <c r="I17" s="7">
-        <v>259991</v>
+        <v>940156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>387</v>
+        <v>1437</v>
       </c>
       <c r="N17" s="7">
-        <v>406428</v>
+        <v>1557208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>178</v>
+        <v>717</v>
       </c>
       <c r="D18" s="7">
-        <v>187470</v>
+        <v>780140</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3655,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>314</v>
+        <v>1074</v>
       </c>
       <c r="I18" s="7">
-        <v>329840</v>
+        <v>1153464</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3670,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>492</v>
+        <v>1791</v>
       </c>
       <c r="N18" s="7">
-        <v>517310</v>
+        <v>1933604</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3686,171 +3317,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>152</v>
-      </c>
-      <c r="D19" s="7">
-        <v>163088</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>202</v>
-      </c>
-      <c r="I19" s="7">
-        <v>213308</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>354</v>
-      </c>
-      <c r="N19" s="7">
-        <v>376396</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>565</v>
-      </c>
-      <c r="D20" s="7">
-        <v>617052</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>872</v>
-      </c>
-      <c r="I20" s="7">
-        <v>940156</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1437</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1557208</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>717</v>
-      </c>
-      <c r="D21" s="7">
-        <v>780140</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1074</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1153464</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1791</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1933604</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3863,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A8CF93-1CAC-4389-9885-3A5886F861DA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E34843-55F2-43AC-8438-9A4D5A3C23FD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3880,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +3456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>6153</v>
+        <v>28703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>9492</v>
+        <v>51887</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>15645</v>
+        <v>80589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3507,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>33244</v>
+        <v>164496</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>25443</v>
+        <v>196091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>348</v>
       </c>
       <c r="N5" s="7">
-        <v>58688</v>
+        <v>360588</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>39397</v>
+        <v>193199</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I6" s="7">
-        <v>34935</v>
+        <v>247978</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="N6" s="7">
-        <v>74333</v>
+        <v>441177</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4136,49 +3611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>22550</v>
+        <v>39298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>42394</v>
+        <v>49394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>64944</v>
+        <v>88692</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3662,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="D8" s="7">
-        <v>131252</v>
+        <v>226328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7">
-        <v>170648</v>
+        <v>305430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>291</v>
+        <v>491</v>
       </c>
       <c r="N8" s="7">
-        <v>301900</v>
+        <v>531758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="D9" s="7">
-        <v>153802</v>
+        <v>265626</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>213042</v>
+        <v>354824</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>572</v>
       </c>
       <c r="N9" s="7">
-        <v>366844</v>
+        <v>620450</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,7 +3760,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4294,46 +3769,46 @@
         <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>39298</v>
+        <v>41531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>49394</v>
+        <v>63813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>88692</v>
+        <v>105343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>226328</v>
+        <v>133235</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>305430</v>
+        <v>187175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>491</v>
+        <v>297</v>
       </c>
       <c r="N11" s="7">
-        <v>531758</v>
+        <v>320411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="D12" s="7">
-        <v>265626</v>
+        <v>174766</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>354824</v>
+        <v>250988</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="N12" s="7">
-        <v>620450</v>
+        <v>425754</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,55 +3915,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>41531</v>
+        <v>46421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>63813</v>
+        <v>55790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>105343</v>
+        <v>102211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +3972,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>133235</v>
+        <v>171621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>187175</v>
+        <v>254740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>320411</v>
+        <v>426362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="D15" s="7">
-        <v>174766</v>
+        <v>218042</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>250988</v>
+        <v>310530</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>391</v>
+        <v>499</v>
       </c>
       <c r="N15" s="7">
-        <v>425754</v>
+        <v>528573</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4595,55 +4070,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>46421</v>
+        <v>155952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>55790</v>
+        <v>220884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="N16" s="7">
-        <v>102211</v>
+        <v>376835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>173</v>
+        <v>666</v>
       </c>
       <c r="D17" s="7">
-        <v>171621</v>
+        <v>695682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>230</v>
+        <v>873</v>
       </c>
       <c r="I17" s="7">
-        <v>254740</v>
+        <v>943436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
-        <v>403</v>
+        <v>1539</v>
       </c>
       <c r="N17" s="7">
-        <v>426362</v>
+        <v>1639118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>219</v>
+        <v>812</v>
       </c>
       <c r="D18" s="7">
-        <v>218042</v>
+        <v>851634</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>1077</v>
       </c>
       <c r="I18" s="7">
-        <v>310530</v>
+        <v>1164320</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>499</v>
+        <v>1889</v>
       </c>
       <c r="N18" s="7">
-        <v>528573</v>
+        <v>2015953</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4749,171 +4224,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>146</v>
-      </c>
-      <c r="D19" s="7">
-        <v>155952</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="7">
-        <v>204</v>
-      </c>
-      <c r="I19" s="7">
-        <v>220884</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="7">
-        <v>350</v>
-      </c>
-      <c r="N19" s="7">
-        <v>376836</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>666</v>
-      </c>
-      <c r="D20" s="7">
-        <v>695682</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="7">
-        <v>873</v>
-      </c>
-      <c r="I20" s="7">
-        <v>943436</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1539</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1639118</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>812</v>
-      </c>
-      <c r="D21" s="7">
-        <v>851634</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1077</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1164320</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1889</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2015954</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4926,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E29FC-3A56-4345-8BF2-7986D6BD1825}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E636231-3DA3-439B-AD55-9C867A4B721C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4943,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>4106</v>
+        <v>19489</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>3843</v>
+        <v>28071</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>7949</v>
+        <v>47560</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>15520</v>
+        <v>93619</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="I5" s="7">
-        <v>24141</v>
+        <v>140012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="N5" s="7">
-        <v>39661</v>
+        <v>233631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7">
-        <v>19626</v>
+        <v>113108</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5161,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="I6" s="7">
-        <v>27984</v>
+        <v>168083</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="N6" s="7">
-        <v>47610</v>
+        <v>281191</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5199,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>16248</v>
+        <v>36802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>26292</v>
+        <v>45774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>42540</v>
+        <v>82576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>81470</v>
+        <v>146306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="I8" s="7">
-        <v>123872</v>
+        <v>171271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="N8" s="7">
-        <v>205341</v>
+        <v>317577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D9" s="7">
-        <v>97718</v>
+        <v>183108</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5316,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="I9" s="7">
-        <v>150164</v>
+        <v>217045</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>372</v>
+        <v>543</v>
       </c>
       <c r="N9" s="7">
-        <v>247881</v>
+        <v>400153</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5348,55 +4667,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>39161</v>
+        <v>43489</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>49388</v>
+        <v>36671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>88549</v>
+        <v>80160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>154613</v>
+        <v>90176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>190188</v>
+        <v>112111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="N11" s="7">
-        <v>344801</v>
+        <v>202287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7">
-        <v>193774</v>
+        <v>133665</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5471,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="I12" s="7">
-        <v>239576</v>
+        <v>148782</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5486,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>543</v>
+        <v>380</v>
       </c>
       <c r="N12" s="7">
-        <v>433350</v>
+        <v>282447</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5503,55 +4822,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>44942</v>
+        <v>54020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7">
-        <v>40023</v>
+        <v>83076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>84965</v>
+        <v>137096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>94356</v>
+        <v>154927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="I14" s="7">
-        <v>122321</v>
+        <v>278851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
-        <v>278</v>
+        <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>216677</v>
+        <v>433778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>139298</v>
+        <v>208947</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5626,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>451</v>
       </c>
       <c r="I15" s="7">
-        <v>162344</v>
+        <v>361927</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5641,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>380</v>
+        <v>690</v>
       </c>
       <c r="N15" s="7">
-        <v>301642</v>
+        <v>570874</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5658,55 +4977,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="D16" s="7">
-        <v>56366</v>
+        <v>153801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="I16" s="7">
-        <v>90466</v>
+        <v>193591</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="N16" s="7">
-        <v>146832</v>
+        <v>347392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>173</v>
+        <v>537</v>
       </c>
       <c r="D17" s="7">
-        <v>159991</v>
+        <v>485027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
-        <v>328</v>
+        <v>1048</v>
       </c>
       <c r="I17" s="7">
-        <v>251271</v>
+        <v>702246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
-        <v>501</v>
+        <v>1585</v>
       </c>
       <c r="N17" s="7">
-        <v>411262</v>
+        <v>1187273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,10 +5085,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>239</v>
+        <v>710</v>
       </c>
       <c r="D18" s="7">
-        <v>216357</v>
+        <v>638828</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5781,10 +5100,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>451</v>
+        <v>1350</v>
       </c>
       <c r="I18" s="7">
-        <v>341737</v>
+        <v>895837</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5796,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>690</v>
+        <v>2060</v>
       </c>
       <c r="N18" s="7">
-        <v>558094</v>
+        <v>1534665</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5812,171 +5131,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>173</v>
-      </c>
-      <c r="D19" s="7">
-        <v>160822</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>302</v>
-      </c>
-      <c r="I19" s="7">
-        <v>210012</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M19" s="7">
-        <v>475</v>
-      </c>
-      <c r="N19" s="7">
-        <v>370834</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>537</v>
-      </c>
-      <c r="D20" s="7">
-        <v>505951</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1048</v>
-      </c>
-      <c r="I20" s="7">
-        <v>711792</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1585</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1217743</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>710</v>
-      </c>
-      <c r="D21" s="7">
-        <v>666773</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1350</v>
-      </c>
-      <c r="I21" s="7">
-        <v>921804</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2060</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1588577</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
